--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/repos/FlaskShop /data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8CE95A7-C9EF-354E-A93E-0AFF7816C1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1F97A54D-8DB9-AD4A-AA46-736DC279489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220"/>
   </bookViews>
@@ -20,34 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
-  <si>
-    <t>Sandbox</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation</t>
-  </si>
-  <si>
-    <t>https://venturebeat.com/wp-content/uploads/2021/03/article23-1.jpg?w=1200&amp;strip=all</t>
-  </si>
-  <si>
-    <t>Decentraland</t>
-  </si>
-  <si>
-    <t>https://venturebeat.com/wp-content/uploads/2022/03/GettyImages-937126612.jpg?fit=1732%2C990&amp;strip=all</t>
-  </si>
-  <si>
-    <t>Deltaverse</t>
-  </si>
-  <si>
-    <t>https://robbreport.com/wp-content/uploads/2022/02/RR_Metaverse_02.jpg</t>
-  </si>
-  <si>
-    <t>MV DOA</t>
-  </si>
-  <si>
-    <t>http://wearemtm.com/wp-content/uploads/2022/04/metaverse-virtual-world-1.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Space Islands</t>
   </si>
@@ -61,9 +34,6 @@
     <t>https://content.fortune.com/wp-content/uploads/2021/12/web_CentralTown-03.jpg</t>
   </si>
   <si>
-    <t>DeltΔ Town</t>
-  </si>
-  <si>
     <t>https://egamers.io/wp-content/uploads/2021/06/the-sandbox-sale.jpg</t>
   </si>
   <si>
@@ -137,6 +107,9 @@
   </si>
   <si>
     <t>Serving home cooked recipes every day, The Corner Shop has it all. As you walk past and smell the air, you just can't help popping in and getting a toastie as you converse with the friendly staff.</t>
+  </si>
+  <si>
+    <t>Delta Town</t>
   </si>
 </sst>
 </file>
@@ -977,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G1">
-        <v>30</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1018,22 +991,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
       <c r="F2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1041,22 +1014,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1064,22 +1037,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,22 +1060,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1110,22 +1083,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
       <c r="G6">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1133,22 +1106,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1159,19 +1132,19 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1179,22 +1152,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1202,113 +1175,21 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="G10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <v>286</v>
-      </c>
-      <c r="G14">
         <v>42</v>
       </c>
     </row>
